--- a/data_year/zb/国民经济核算/投入产出直接消耗系数/电力、热力及水的生产和供应业投入产出直接消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出直接消耗系数/电力、热力及水的生产和供应业投入产出直接消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,385 +558,306 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7135169858457771</v>
+        <v>0.744274129318333</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00327558867973</v>
+        <v>0.003285410755242</v>
       </c>
       <c r="E2" t="n">
-        <v>0.023379146087646</v>
+        <v>0.023079134936906</v>
       </c>
       <c r="F2" t="n">
-        <v>1.3433418195e-05</v>
+        <v>2.3369713301e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.071708361581465</v>
+        <v>0.082667593420289</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00477437250873</v>
+        <v>0.004819286069062</v>
       </c>
       <c r="I2" t="n">
-        <v>0.122033387830886</v>
+        <v>0.096002975550705</v>
       </c>
       <c r="J2" t="n">
-        <v>0.286483014154223</v>
+        <v>0.255725870681667</v>
       </c>
       <c r="K2" t="n">
-        <v>0.000336954763278</v>
+        <v>0.000379670630285</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003848221837338</v>
+        <v>0.004749691261799</v>
       </c>
       <c r="M2" t="n">
-        <v>0.010122666509859</v>
+        <v>0.010975777010272</v>
       </c>
       <c r="N2" t="n">
-        <v>0.09090715531895401</v>
+        <v>0.082520514549615</v>
       </c>
       <c r="O2" t="n">
-        <v>0.040466746315925</v>
+        <v>0.027130667153367</v>
       </c>
       <c r="P2" t="n">
-        <v>0.037292262390157</v>
+        <v>0.045347894288555</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.355909327249604</v>
+        <v>0.32872301055542</v>
       </c>
       <c r="R2" t="n">
-        <v>0.003374954926827</v>
+        <v>0.003673251422289</v>
       </c>
       <c r="S2" t="n">
-        <v>0.055449002351715</v>
+        <v>0.031707407422118</v>
       </c>
       <c r="T2" t="n">
-        <v>0.017087240516101</v>
+        <v>0.017972071293359</v>
       </c>
       <c r="U2" t="n">
-        <v>0.112454416968423</v>
+        <v>0.184209869685625</v>
       </c>
       <c r="V2" t="n">
-        <v>0.006364127944305</v>
+        <v>0.007627847372135</v>
       </c>
       <c r="W2" t="n">
-        <v>0.036225841496787</v>
+        <v>0.040084207682318</v>
       </c>
       <c r="X2" t="n">
-        <v>0.001996665719691</v>
+        <v>0.002080624648965</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.002980125584386</v>
+        <v>0.00293972457837</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.744274129318333</v>
+        <v>0.73537364204209</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003285410755242</v>
+        <v>0.004129231728413</v>
       </c>
       <c r="E3" t="n">
-        <v>0.023079134936906</v>
+        <v>0.014102793312599</v>
       </c>
       <c r="F3" t="n">
-        <v>2.3369713301e-05</v>
+        <v>0.000111319469385</v>
       </c>
       <c r="G3" t="n">
-        <v>0.082667593420289</v>
+        <v>0.07921155161396699</v>
       </c>
       <c r="H3" t="n">
-        <v>0.004819286069062</v>
+        <v>0.003440528635419</v>
       </c>
       <c r="I3" t="n">
-        <v>0.096002975550705</v>
+        <v>0.092416962519883</v>
       </c>
       <c r="J3" t="n">
-        <v>0.255725870681667</v>
+        <v>0.26462635795791</v>
       </c>
       <c r="K3" t="n">
-        <v>0.000379670630285</v>
+        <v>0.004090240434236</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004749691261799</v>
+        <v>0.003731238899462</v>
       </c>
       <c r="M3" t="n">
-        <v>0.010975777010272</v>
+        <v>0.013377058552106</v>
       </c>
       <c r="N3" t="n">
-        <v>0.082520514549615</v>
+        <v>0.07210374742663</v>
       </c>
       <c r="O3" t="n">
-        <v>0.027130667153367</v>
+        <v>0.03943642276463</v>
       </c>
       <c r="P3" t="n">
-        <v>0.045347894288555</v>
+        <v>0.04241300058068</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.32872301055542</v>
+        <v>0.323598196463713</v>
       </c>
       <c r="R3" t="n">
-        <v>0.003673251422289</v>
+        <v>0.0007462415403569999</v>
       </c>
       <c r="S3" t="n">
-        <v>0.031707407422118</v>
+        <v>0.05058484324338</v>
       </c>
       <c r="T3" t="n">
-        <v>0.017972071293359</v>
+        <v>0.016282682635914</v>
       </c>
       <c r="U3" t="n">
-        <v>0.184209869685625</v>
+        <v>0.185617436015423</v>
       </c>
       <c r="V3" t="n">
-        <v>0.007627847372135</v>
+        <v>0.001612397334694</v>
       </c>
       <c r="W3" t="n">
-        <v>0.040084207682318</v>
+        <v>0.048721929902689</v>
       </c>
       <c r="X3" t="n">
-        <v>0.002080624648965</v>
+        <v>0.000740800258272</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.00293972457837</v>
+        <v>0.003531376668148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.73537364204209</v>
+        <v>0.769418585005509</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004129231728413</v>
+        <v>0.00544308574685</v>
       </c>
       <c r="E4" t="n">
-        <v>0.014102793312599</v>
+        <v>0.018941332762003</v>
       </c>
       <c r="F4" t="n">
-        <v>0.000111319469385</v>
+        <v>0.000159268901885</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07921155161396699</v>
+        <v>0.063840041547049</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003440528635419</v>
+        <v>0.004445897300047</v>
       </c>
       <c r="I4" t="n">
-        <v>0.092416962519883</v>
+        <v>0.068066819409419</v>
       </c>
       <c r="J4" t="n">
-        <v>0.26462635795791</v>
+        <v>0.230581414994491</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004090240434236</v>
+        <v>0.004933325757473</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003731238899462</v>
+        <v>0.00612396500156</v>
       </c>
       <c r="M4" t="n">
-        <v>0.013377058552106</v>
+        <v>0.01849132407576</v>
       </c>
       <c r="N4" t="n">
-        <v>0.07210374742663</v>
+        <v>0.07658188567335</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03943642276463</v>
+        <v>0.031666596904608</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04241300058068</v>
+        <v>0.02406888347145</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.323598196463713</v>
+        <v>0.386024528832915</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0007462415403569999</v>
+        <v>0.001238710656051</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05058484324338</v>
+        <v>0.074605670566573</v>
       </c>
       <c r="T4" t="n">
-        <v>0.016282682635914</v>
+        <v>0.020680480376216</v>
       </c>
       <c r="U4" t="n">
-        <v>0.185617436015423</v>
+        <v>0.125077717959489</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001612397334694</v>
+        <v>0.001942137393191</v>
       </c>
       <c r="W4" t="n">
-        <v>0.048721929902689</v>
+        <v>0.061708058732456</v>
       </c>
       <c r="X4" t="n">
-        <v>0.000740800258272</v>
+        <v>0.000767472425291</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.003531376668148</v>
+        <v>0.005192796506364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.769418585005509</v>
+        <v>0.678908319918151</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00544308574685</v>
+        <v>0.004273200262951</v>
       </c>
       <c r="E5" t="n">
-        <v>0.018941332762003</v>
+        <v>0.022042942784241</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000159268901885</v>
+        <v>0.000103063553035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.063840041547049</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.004445897300047</v>
-      </c>
+        <v>0.105554154214122</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.068066819409419</v>
+        <v>0.117807854023568</v>
       </c>
       <c r="J5" t="n">
-        <v>0.230581414994491</v>
+        <v>0.321091680081848</v>
       </c>
       <c r="K5" t="n">
-        <v>0.004933325757473</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.00612396500156</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.01849132407576</v>
-      </c>
+        <v>0.003148135255876</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0.07658188567335</v>
+        <v>0.081383115720452</v>
       </c>
       <c r="O5" t="n">
-        <v>0.031666596904608</v>
+        <v>0.020606322310493</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02406888347145</v>
+        <v>0.047566593545472</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.386024528832915</v>
+        <v>0.272941316744697</v>
       </c>
       <c r="R5" t="n">
-        <v>0.001238710656051</v>
+        <v>0.001691038594371</v>
       </c>
       <c r="S5" t="n">
-        <v>0.074605670566573</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.020680480376216</v>
-      </c>
+        <v>0.050163078298685</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>0.125077717959489</v>
+        <v>0.171325096749064</v>
       </c>
       <c r="V5" t="n">
-        <v>0.001942137393191</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.061708058732456</v>
-      </c>
+        <v>0.001805618397423</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>0.000767472425291</v>
+        <v>0.002141019439839</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.005192796506364</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.678908319918151</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.004273200262951</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.022042942784241</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.000103063553035</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.105554154214122</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0.117807854023568</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.321091680081848</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.003148135255876</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>0.081383115720452</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.020606322310493</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.047566593545472</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.272941316744697</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.001691038594371</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.050163078298685</v>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>0.171325096749064</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.001805618397423</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
-        <v>0.002141019439839</v>
-      </c>
-      <c r="Y6" t="n">
         <v>0.006814959612723</v>
       </c>
     </row>
